--- a/results.xlsx
+++ b/results.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROV ADJ CODE1: Forwarding Balance Identifier: 0053073066 AMT: -20403.50 GLOSSARY:</t>
+          <t>PROV ADJ CODE1: Forwarding Balance Identifier: 0053073066 AMT: -20403.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLOSSARY:</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
